--- a/medicine/Psychotrope/Café_del_Mar/Café_del_Mar.xlsx
+++ b/medicine/Psychotrope/Café_del_Mar/Café_del_Mar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_del_Mar</t>
+          <t>Café_del_Mar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Café del Mar est un célèbre bar branché d'Ibiza situé à Sant Antoni de Portmany. Il est connu pour son ambiance musicale et son coucher de soleil. En effet la musique lounge qui y est diffusée est différente de celle, plutôt techno-house, que l'on écoute dans la plupart des bars de nuit et discothèques de l'île[1]. Cette caractéristique en a fait un lieu touristique.
-Le concept a également été repris à Carthagène des Indes en Colombie[2].
+Le Café del Mar est un célèbre bar branché d'Ibiza situé à Sant Antoni de Portmany. Il est connu pour son ambiance musicale et son coucher de soleil. En effet la musique lounge qui y est diffusée est différente de celle, plutôt techno-house, que l'on écoute dans la plupart des bars de nuit et discothèques de l'île. Cette caractéristique en a fait un lieu touristique.
+Le concept a également été repris à Carthagène des Indes en Colombie.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_del_Mar</t>
+          <t>Café_del_Mar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Discographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les albums sont divisés en 17 catégories :
 Ambient
@@ -1213,7 +1227,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_del_Mar</t>
+          <t>Café_del_Mar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1231,9 +1245,11 @@
           <t>Influence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le morceau de musique trance du même nom du groupe musique électronique allemand Energy 52 sorti en 1993 chez Eye Q, le label allemand de Sven Väth, Matthias Hoffmann et Heinz Roth[3], fait référence à ce bar. Le titre est ensuite publié par de nombreuses maisons de disque ou labels et demeure l'un des morceaux les plus remixés ou repris par divers artistes de musique électronique, particulièrement de musique trance[3], au même titre que le fameux Age of love du groupe italo-belge du même nom sorti quelques années plus tôt.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le morceau de musique trance du même nom du groupe musique électronique allemand Energy 52 sorti en 1993 chez Eye Q, le label allemand de Sven Väth, Matthias Hoffmann et Heinz Roth, fait référence à ce bar. Le titre est ensuite publié par de nombreuses maisons de disque ou labels et demeure l'un des morceaux les plus remixés ou repris par divers artistes de musique électronique, particulièrement de musique trance, au même titre que le fameux Age of love du groupe italo-belge du même nom sorti quelques années plus tôt.
 </t>
         </is>
       </c>
